--- a/发票信息模板_拆分表2.xlsx
+++ b/发票信息模板_拆分表2.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>261.84</t>
+          <t>1183.34</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>-52.37</t>
+          <t>-236.67</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>7122.62</t>
+          <t>261.84</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>-1424.52</t>
+          <t>-52.37</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>656.55</t>
+          <t>7122.62</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>-131.31</t>
+          <t>-1424.52</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>483.81</t>
+          <t>656.55</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>-96.76</t>
+          <t>-131.31</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr"/>
@@ -667,7 +667,7 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>1183.34</t>
+          <t>483.81</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr"/>
@@ -691,14 +691,62 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
+          <t>-96.76</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>数电发票（专票）</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>24337000000125832580</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>1183.34</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>数电发票（专票）</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>24337000000125832580</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
           <t>-236.67</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="输入错误" error="请输入有效的发票类型！" type="list">
+    <dataValidation sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="输入错误" error="请输入有效的发票类型！" type="list">
       <formula1>"增值税专用发票,增值税电子专用发票,增值税普通发票,增值税电子普通发票,机动车销售统一发票,卷式发票,二手车发票,通行费发票,数电发票（专票）,数电发票（普票）,货物运输业增值税专用发票"</formula1>
     </dataValidation>
   </dataValidations>
